--- a/SubRES_TMPL/SubRES_STO_Techs_noELC.xlsx
+++ b/SubRES_TMPL/SubRES_STO_Techs_noELC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AA1F12-C9ED-40BF-AB99-7BE8F7F1C7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94BD596-4C2C-4F8D-A82B-48A7D636BF31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14380,8 +14380,8 @@
   </sheetPr>
   <dimension ref="A2:BE42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7:BD20"/>
+    <sheetView tabSelected="1" topLeftCell="Y2" zoomScale="40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -16418,441 +16418,441 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="P21" s="2">
+        <v>31.536000000000001</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>2030</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="U21" s="2">
+        <v>20</v>
+      </c>
+      <c r="V21" s="2">
+        <v>25</v>
+      </c>
+      <c r="W21" s="2">
+        <v>30</v>
+      </c>
+      <c r="X21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB21" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="AC21" s="2">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="AD21" s="2">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="AE21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO21" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="AP21" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="AQ21" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="AR21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AW21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P22" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>2030</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="U22" s="2">
+        <v>20</v>
+      </c>
+      <c r="V22" s="2">
+        <v>25</v>
+      </c>
+      <c r="W22" s="2">
+        <v>30</v>
+      </c>
+      <c r="X22" s="2">
+        <v>14000</v>
+      </c>
+      <c r="Y22" s="2">
+        <v>30000</v>
+      </c>
+      <c r="Z22" s="2">
+        <v>50000</v>
+      </c>
+      <c r="AA22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK22" s="2">
+        <v>-0.36499999999999999</v>
+      </c>
+      <c r="AL22" s="2">
+        <v>-0.36499999999999999</v>
+      </c>
+      <c r="AM22" s="2">
+        <v>-0.36499999999999999</v>
+      </c>
+      <c r="AN22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO22" s="2">
+        <f>('180 Lithium Ion Battery'!E25+'180 Lithium Ion Battery'!E27)/0.0000036</f>
+        <v>41945.222222222219</v>
+      </c>
+      <c r="AP22" s="2">
+        <f>('180 Lithium Ion Battery'!F25+'180 Lithium Ion Battery'!F27)/0.0000036</f>
+        <v>27766.555555555551</v>
+      </c>
+      <c r="AQ22" s="2">
+        <f>('180 Lithium Ion Battery'!G25+'180 Lithium Ion Battery'!G27)/0.0000036</f>
+        <v>22154.166666666664</v>
+      </c>
+      <c r="AU22" s="2">
+        <f>'180 Lithium Ion Battery'!E29/(1000000*0.0000036)</f>
+        <v>0.53169999999999995</v>
+      </c>
+      <c r="AV22" s="2">
+        <f>'180 Lithium Ion Battery'!F29/(1000000*0.0000036)</f>
+        <v>0.50216111111111106</v>
+      </c>
+      <c r="AW22" s="2">
+        <f>'180 Lithium Ion Battery'!G29/(1000000*0.0000036)</f>
+        <v>0.47262222222222222</v>
+      </c>
+      <c r="AX22" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AY22" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AZ22" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="BC22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="P23" s="2">
+        <v>31.536000000000001</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>2030</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="U23" s="2">
+        <v>20</v>
+      </c>
+      <c r="V23" s="2">
+        <v>25</v>
+      </c>
+      <c r="W23" s="2">
+        <v>30</v>
+      </c>
+      <c r="X23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB23" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="AC23" s="2">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="AD23" s="2">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="AE23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO23" s="2">
+        <f>'180 Lithium Ion Battery'!E26*1000</f>
+        <v>170.14399999999998</v>
+      </c>
+      <c r="AP23" s="2">
+        <f>'180 Lithium Ion Battery'!F26*1000</f>
+        <v>106.33999999999999</v>
+      </c>
+      <c r="AQ23" s="2">
+        <f>'180 Lithium Ion Battery'!G26*1000</f>
+        <v>63.803999999999988</v>
+      </c>
+      <c r="AR23" s="17">
+        <f>'180 Lithium Ion Battery'!E28</f>
+        <v>0.57423599999999997</v>
+      </c>
+      <c r="AS23" s="17">
+        <f>'180 Lithium Ion Battery'!F28</f>
+        <v>0.57423599999999997</v>
+      </c>
+      <c r="AT23" s="17">
+        <f>'180 Lithium Ion Battery'!G28</f>
+        <v>0.57423599999999997</v>
+      </c>
+      <c r="AU23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AW23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC23" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N36" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="B38" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="P38" s="2">
-        <v>31.536000000000001</v>
-      </c>
-      <c r="Q38" s="2">
-        <v>2030</v>
-      </c>
-      <c r="R38" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="S38" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="T38" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="U38" s="2">
-        <v>20</v>
-      </c>
-      <c r="V38" s="2">
-        <v>25</v>
-      </c>
-      <c r="W38" s="2">
-        <v>30</v>
-      </c>
-      <c r="X38" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y38" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z38" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA38" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB38" s="2">
-        <v>0.98</v>
-      </c>
-      <c r="AC38" s="2">
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="AD38" s="2">
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="AE38" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF38" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG38" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH38" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI38" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJ38" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK38" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AL38" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM38" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AN38" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AO38" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="AP38" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="AQ38" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="AR38" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AS38" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT38" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU38" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV38" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AW38" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="BC38" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="B39" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O39" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="P39" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="2">
-        <v>2030</v>
-      </c>
-      <c r="R39" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="S39" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="T39" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="U39" s="2">
-        <v>20</v>
-      </c>
-      <c r="V39" s="2">
-        <v>25</v>
-      </c>
-      <c r="W39" s="2">
-        <v>30</v>
-      </c>
-      <c r="X39" s="2">
-        <v>14000</v>
-      </c>
-      <c r="Y39" s="2">
-        <v>30000</v>
-      </c>
-      <c r="Z39" s="2">
-        <v>50000</v>
-      </c>
-      <c r="AA39" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB39" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC39" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD39" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH39" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI39" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJ39" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK39" s="2">
-        <v>-0.36499999999999999</v>
-      </c>
-      <c r="AL39" s="2">
-        <v>-0.36499999999999999</v>
-      </c>
-      <c r="AM39" s="2">
-        <v>-0.36499999999999999</v>
-      </c>
-      <c r="AN39" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AO39" s="2">
-        <f>('180 Lithium Ion Battery'!E25+'180 Lithium Ion Battery'!E27)/0.0000036</f>
-        <v>41945.222222222219</v>
-      </c>
-      <c r="AP39" s="2">
-        <f>('180 Lithium Ion Battery'!F25+'180 Lithium Ion Battery'!F27)/0.0000036</f>
-        <v>27766.555555555551</v>
-      </c>
-      <c r="AQ39" s="2">
-        <f>('180 Lithium Ion Battery'!G25+'180 Lithium Ion Battery'!G27)/0.0000036</f>
-        <v>22154.166666666664</v>
-      </c>
-      <c r="AU39" s="2">
-        <f>'180 Lithium Ion Battery'!E29/(1000000*0.0000036)</f>
-        <v>0.53169999999999995</v>
-      </c>
-      <c r="AV39" s="2">
-        <f>'180 Lithium Ion Battery'!F29/(1000000*0.0000036)</f>
-        <v>0.50216111111111106</v>
-      </c>
-      <c r="AW39" s="2">
-        <f>'180 Lithium Ion Battery'!G29/(1000000*0.0000036)</f>
-        <v>0.47262222222222222</v>
-      </c>
-      <c r="AX39" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AY39" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AZ39" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="BC39" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="B40" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="O40" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="P40" s="2">
-        <v>31.536000000000001</v>
-      </c>
-      <c r="Q40" s="2">
-        <v>2030</v>
-      </c>
-      <c r="R40" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="S40" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="T40" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="U40" s="2">
-        <v>20</v>
-      </c>
-      <c r="V40" s="2">
-        <v>25</v>
-      </c>
-      <c r="W40" s="2">
-        <v>30</v>
-      </c>
-      <c r="X40" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y40" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z40" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA40" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB40" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="AC40" s="2">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="AD40" s="2">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="AE40" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF40" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG40" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH40" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI40" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJ40" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK40" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AL40" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM40" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AN40" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AO40" s="2">
-        <f>'180 Lithium Ion Battery'!E26*1000</f>
-        <v>170.14399999999998</v>
-      </c>
-      <c r="AP40" s="2">
-        <f>'180 Lithium Ion Battery'!F26*1000</f>
-        <v>106.33999999999999</v>
-      </c>
-      <c r="AQ40" s="2">
-        <f>'180 Lithium Ion Battery'!G26*1000</f>
-        <v>63.803999999999988</v>
-      </c>
-      <c r="AR40" s="17">
-        <f>'180 Lithium Ion Battery'!E28</f>
-        <v>0.57423599999999997</v>
-      </c>
-      <c r="AS40" s="17">
-        <f>'180 Lithium Ion Battery'!F28</f>
-        <v>0.57423599999999997</v>
-      </c>
-      <c r="AT40" s="17">
-        <f>'180 Lithium Ion Battery'!G28</f>
-        <v>0.57423599999999997</v>
-      </c>
-      <c r="AU40" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV40" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AW40" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="BC40" s="2">
-        <v>1</v>
-      </c>
-      <c r="BD40" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="42" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N42" s="2" t="s">
         <v>94</v>
       </c>
@@ -17815,7 +17815,7 @@
       </c>
       <c r="N26" s="57"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A27" s="58"/>
       <c r="B27" s="59" t="s">
         <v>175</v>

--- a/SubRES_TMPL/SubRES_STO_Techs_noELC.xlsx
+++ b/SubRES_TMPL/SubRES_STO_Techs_noELC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94BD596-4C2C-4F8D-A82B-48A7D636BF31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5B8E2A-D145-4796-BF69-0942618BC8E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14380,8 +14380,8 @@
   </sheetPr>
   <dimension ref="A2:BE42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y2" zoomScale="40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD23"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -16418,441 +16418,441 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
+    <row r="31" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I31" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="K31" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="L31" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="M31" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="O21" s="2" t="s">
+      <c r="O31" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="P21" s="2">
+      <c r="P31" s="2">
         <v>31.536000000000001</v>
       </c>
-      <c r="Q21" s="2">
+      <c r="Q31" s="2">
         <v>2030</v>
       </c>
-      <c r="R21" s="2" t="s">
+      <c r="R31" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="S21" s="2" t="s">
+      <c r="S31" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="T21" s="2" t="s">
+      <c r="T31" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="U21" s="2">
+      <c r="U31" s="2">
         <v>20</v>
       </c>
-      <c r="V21" s="2">
+      <c r="V31" s="2">
         <v>25</v>
       </c>
-      <c r="W21" s="2">
+      <c r="W31" s="2">
         <v>30</v>
       </c>
-      <c r="X21" s="2" t="s">
+      <c r="X31" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="Y21" s="2" t="s">
+      <c r="Y31" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="Z21" s="2" t="s">
+      <c r="Z31" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AA21" s="2" t="s">
+      <c r="AA31" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AB21" s="2">
+      <c r="AB31" s="2">
         <v>0.98</v>
       </c>
-      <c r="AC21" s="2">
+      <c r="AC31" s="2">
         <v>0.98499999999999999</v>
       </c>
-      <c r="AD21" s="2">
+      <c r="AD31" s="2">
         <v>0.98499999999999999</v>
       </c>
-      <c r="AE21" s="2" t="s">
+      <c r="AE31" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AF21" s="2" t="s">
+      <c r="AF31" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AG21" s="2" t="s">
+      <c r="AG31" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AH21" s="2" t="s">
+      <c r="AH31" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AI21" s="2" t="s">
+      <c r="AI31" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AJ21" s="2" t="s">
+      <c r="AJ31" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AK21" s="2" t="s">
+      <c r="AK31" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AL21" s="2" t="s">
+      <c r="AL31" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AM21" s="2" t="s">
+      <c r="AM31" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AN21" s="2" t="s">
+      <c r="AN31" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AO21" s="2">
+      <c r="AO31" s="2">
         <v>1E-4</v>
       </c>
-      <c r="AP21" s="2">
+      <c r="AP31" s="2">
         <v>1E-4</v>
       </c>
-      <c r="AQ21" s="2">
+      <c r="AQ31" s="2">
         <v>1E-4</v>
       </c>
-      <c r="AR21" s="2" t="s">
+      <c r="AR31" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AS21" s="2" t="s">
+      <c r="AS31" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AT21" s="2" t="s">
+      <c r="AT31" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AU21" s="2" t="s">
+      <c r="AU31" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AV21" s="2" t="s">
+      <c r="AV31" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AW21" s="2" t="s">
+      <c r="AW31" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BC21" s="2">
+      <c r="BC31" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
+    <row r="32" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I32" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="K32" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="L32" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="M32" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="N22" s="2" t="s">
+      <c r="N32" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="O22" s="2" t="s">
+      <c r="O32" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P22" s="2">
+      <c r="P32" s="2">
         <v>1</v>
       </c>
-      <c r="Q22" s="2">
+      <c r="Q32" s="2">
         <v>2030</v>
       </c>
-      <c r="R22" s="2" t="s">
+      <c r="R32" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="S22" s="2" t="s">
+      <c r="S32" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="T22" s="2" t="s">
+      <c r="T32" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="U22" s="2">
+      <c r="U32" s="2">
         <v>20</v>
       </c>
-      <c r="V22" s="2">
+      <c r="V32" s="2">
         <v>25</v>
       </c>
-      <c r="W22" s="2">
+      <c r="W32" s="2">
         <v>30</v>
       </c>
-      <c r="X22" s="2">
+      <c r="X32" s="2">
         <v>14000</v>
       </c>
-      <c r="Y22" s="2">
+      <c r="Y32" s="2">
         <v>30000</v>
       </c>
-      <c r="Z22" s="2">
+      <c r="Z32" s="2">
         <v>50000</v>
       </c>
-      <c r="AA22" s="2" t="s">
+      <c r="AA32" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AB22" s="2" t="s">
+      <c r="AB32" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AC22" s="2" t="s">
+      <c r="AC32" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AD22" s="2" t="s">
+      <c r="AD32" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AH22" s="2" t="s">
+      <c r="AH32" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AI22" s="2" t="s">
+      <c r="AI32" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AJ22" s="2" t="s">
+      <c r="AJ32" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AK22" s="2">
+      <c r="AK32" s="2">
         <v>-0.36499999999999999</v>
       </c>
-      <c r="AL22" s="2">
+      <c r="AL32" s="2">
         <v>-0.36499999999999999</v>
       </c>
-      <c r="AM22" s="2">
+      <c r="AM32" s="2">
         <v>-0.36499999999999999</v>
       </c>
-      <c r="AN22" s="2" t="s">
+      <c r="AN32" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AO22" s="2">
+      <c r="AO32" s="2">
         <f>('180 Lithium Ion Battery'!E25+'180 Lithium Ion Battery'!E27)/0.0000036</f>
         <v>41945.222222222219</v>
       </c>
-      <c r="AP22" s="2">
+      <c r="AP32" s="2">
         <f>('180 Lithium Ion Battery'!F25+'180 Lithium Ion Battery'!F27)/0.0000036</f>
         <v>27766.555555555551</v>
       </c>
-      <c r="AQ22" s="2">
+      <c r="AQ32" s="2">
         <f>('180 Lithium Ion Battery'!G25+'180 Lithium Ion Battery'!G27)/0.0000036</f>
         <v>22154.166666666664</v>
       </c>
-      <c r="AU22" s="2">
+      <c r="AU32" s="2">
         <f>'180 Lithium Ion Battery'!E29/(1000000*0.0000036)</f>
         <v>0.53169999999999995</v>
       </c>
-      <c r="AV22" s="2">
+      <c r="AV32" s="2">
         <f>'180 Lithium Ion Battery'!F29/(1000000*0.0000036)</f>
         <v>0.50216111111111106</v>
       </c>
-      <c r="AW22" s="2">
+      <c r="AW32" s="2">
         <f>'180 Lithium Ion Battery'!G29/(1000000*0.0000036)</f>
         <v>0.47262222222222222</v>
       </c>
-      <c r="AX22" s="2">
+      <c r="AX32" s="2">
         <v>0.2</v>
       </c>
-      <c r="AY22" s="2">
+      <c r="AY32" s="2">
         <v>0.2</v>
       </c>
-      <c r="AZ22" s="2">
+      <c r="AZ32" s="2">
         <v>0.2</v>
       </c>
-      <c r="BC22" s="2">
+      <c r="BC32" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
+    <row r="33" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I33" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="K33" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="L33" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="M23" s="2" t="s">
+      <c r="M33" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="O23" s="2" t="s">
+      <c r="O33" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="P23" s="2">
+      <c r="P33" s="2">
         <v>31.536000000000001</v>
       </c>
-      <c r="Q23" s="2">
+      <c r="Q33" s="2">
         <v>2030</v>
       </c>
-      <c r="R23" s="2" t="s">
+      <c r="R33" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="S23" s="2" t="s">
+      <c r="S33" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="T23" s="2" t="s">
+      <c r="T33" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="U23" s="2">
+      <c r="U33" s="2">
         <v>20</v>
       </c>
-      <c r="V23" s="2">
+      <c r="V33" s="2">
         <v>25</v>
       </c>
-      <c r="W23" s="2">
+      <c r="W33" s="2">
         <v>30</v>
       </c>
-      <c r="X23" s="2" t="s">
+      <c r="X33" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="Y23" s="2" t="s">
+      <c r="Y33" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="Z23" s="2" t="s">
+      <c r="Z33" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AA23" s="2" t="s">
+      <c r="AA33" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AB23" s="2">
+      <c r="AB33" s="2">
         <v>0.97</v>
       </c>
-      <c r="AC23" s="2">
+      <c r="AC33" s="2">
         <v>0.97499999999999998</v>
       </c>
-      <c r="AD23" s="2">
+      <c r="AD33" s="2">
         <v>0.97499999999999998</v>
       </c>
-      <c r="AE23" s="2" t="s">
+      <c r="AE33" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AF23" s="2" t="s">
+      <c r="AF33" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AG23" s="2" t="s">
+      <c r="AG33" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AH23" s="2" t="s">
+      <c r="AH33" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AI23" s="2" t="s">
+      <c r="AI33" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AJ23" s="2" t="s">
+      <c r="AJ33" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AK23" s="2" t="s">
+      <c r="AK33" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AL23" s="2" t="s">
+      <c r="AL33" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AM23" s="2" t="s">
+      <c r="AM33" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AN23" s="2" t="s">
+      <c r="AN33" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AO23" s="2">
+      <c r="AO33" s="2">
         <f>'180 Lithium Ion Battery'!E26*1000</f>
         <v>170.14399999999998</v>
       </c>
-      <c r="AP23" s="2">
+      <c r="AP33" s="2">
         <f>'180 Lithium Ion Battery'!F26*1000</f>
         <v>106.33999999999999</v>
       </c>
-      <c r="AQ23" s="2">
+      <c r="AQ33" s="2">
         <f>'180 Lithium Ion Battery'!G26*1000</f>
         <v>63.803999999999988</v>
       </c>
-      <c r="AR23" s="17">
+      <c r="AR33" s="17">
         <f>'180 Lithium Ion Battery'!E28</f>
         <v>0.57423599999999997</v>
       </c>
-      <c r="AS23" s="17">
+      <c r="AS33" s="17">
         <f>'180 Lithium Ion Battery'!F28</f>
         <v>0.57423599999999997</v>
       </c>
-      <c r="AT23" s="17">
+      <c r="AT33" s="17">
         <f>'180 Lithium Ion Battery'!G28</f>
         <v>0.57423599999999997</v>
       </c>
-      <c r="AU23" s="2" t="s">
+      <c r="AU33" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AV23" s="2" t="s">
+      <c r="AV33" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AW23" s="2" t="s">
+      <c r="AW33" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BC23" s="2">
+      <c r="BC33" s="2">
         <v>1</v>
       </c>
-      <c r="BD23" s="2">
+      <c r="BD33" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:56" x14ac:dyDescent="0.25">
       <c r="N36" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:56" x14ac:dyDescent="0.25">
       <c r="N42" s="2" t="s">
         <v>94</v>
       </c>
@@ -17815,7 +17815,7 @@
       </c>
       <c r="N26" s="57"/>
     </row>
-    <row r="27" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="58"/>
       <c r="B27" s="59" t="s">
         <v>175</v>

--- a/SubRES_TMPL/SubRES_STO_Techs_noELC.xlsx
+++ b/SubRES_TMPL/SubRES_STO_Techs_noELC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5B8E2A-D145-4796-BF69-0942618BC8E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F476BC23-6E7F-499C-819E-ED51314F8759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14381,7 +14381,7 @@
   <dimension ref="A2:BE42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD33"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -16418,441 +16418,441 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
+    <row r="21" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="K21" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="L31" s="2" t="s">
+      <c r="L21" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="M31" s="2" t="s">
+      <c r="M21" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="O31" s="2" t="s">
+      <c r="O21" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="P31" s="2">
+      <c r="P21" s="2">
         <v>31.536000000000001</v>
       </c>
-      <c r="Q31" s="2">
+      <c r="Q21" s="2">
         <v>2030</v>
       </c>
-      <c r="R31" s="2" t="s">
+      <c r="R21" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="S31" s="2" t="s">
+      <c r="S21" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="T31" s="2" t="s">
+      <c r="T21" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="U31" s="2">
+      <c r="U21" s="2">
         <v>20</v>
       </c>
-      <c r="V31" s="2">
+      <c r="V21" s="2">
         <v>25</v>
       </c>
-      <c r="W31" s="2">
+      <c r="W21" s="2">
         <v>30</v>
       </c>
-      <c r="X31" s="2" t="s">
+      <c r="X21" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="Y31" s="2" t="s">
+      <c r="Y21" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="Z31" s="2" t="s">
+      <c r="Z21" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AA31" s="2" t="s">
+      <c r="AA21" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AB31" s="2">
+      <c r="AB21" s="2">
         <v>0.98</v>
       </c>
-      <c r="AC31" s="2">
+      <c r="AC21" s="2">
         <v>0.98499999999999999</v>
       </c>
-      <c r="AD31" s="2">
+      <c r="AD21" s="2">
         <v>0.98499999999999999</v>
       </c>
-      <c r="AE31" s="2" t="s">
+      <c r="AE21" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AF31" s="2" t="s">
+      <c r="AF21" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AG31" s="2" t="s">
+      <c r="AG21" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AH31" s="2" t="s">
+      <c r="AH21" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AI31" s="2" t="s">
+      <c r="AI21" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AJ31" s="2" t="s">
+      <c r="AJ21" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AK31" s="2" t="s">
+      <c r="AK21" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AL31" s="2" t="s">
+      <c r="AL21" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AM31" s="2" t="s">
+      <c r="AM21" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AN31" s="2" t="s">
+      <c r="AN21" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AO31" s="2">
+      <c r="AO21" s="2">
         <v>1E-4</v>
       </c>
-      <c r="AP31" s="2">
+      <c r="AP21" s="2">
         <v>1E-4</v>
       </c>
-      <c r="AQ31" s="2">
+      <c r="AQ21" s="2">
         <v>1E-4</v>
       </c>
-      <c r="AR31" s="2" t="s">
+      <c r="AR21" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AS31" s="2" t="s">
+      <c r="AS21" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AT31" s="2" t="s">
+      <c r="AT21" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AU31" s="2" t="s">
+      <c r="AU21" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AV31" s="2" t="s">
+      <c r="AV21" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AW31" s="2" t="s">
+      <c r="AW21" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BC31" s="2">
+      <c r="BC21" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
+    <row r="22" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="I22" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="K22" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="L32" s="2" t="s">
+      <c r="L22" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="M32" s="2" t="s">
+      <c r="M22" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="N32" s="2" t="s">
+      <c r="N22" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="O32" s="2" t="s">
+      <c r="O22" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P32" s="2">
+      <c r="P22" s="2">
         <v>1</v>
       </c>
-      <c r="Q32" s="2">
+      <c r="Q22" s="2">
         <v>2030</v>
       </c>
-      <c r="R32" s="2" t="s">
+      <c r="R22" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="S32" s="2" t="s">
+      <c r="S22" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="T32" s="2" t="s">
+      <c r="T22" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="U32" s="2">
+      <c r="U22" s="2">
         <v>20</v>
       </c>
-      <c r="V32" s="2">
+      <c r="V22" s="2">
         <v>25</v>
       </c>
-      <c r="W32" s="2">
+      <c r="W22" s="2">
         <v>30</v>
       </c>
-      <c r="X32" s="2">
+      <c r="X22" s="2">
         <v>14000</v>
       </c>
-      <c r="Y32" s="2">
+      <c r="Y22" s="2">
         <v>30000</v>
       </c>
-      <c r="Z32" s="2">
+      <c r="Z22" s="2">
         <v>50000</v>
       </c>
-      <c r="AA32" s="2" t="s">
+      <c r="AA22" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AB32" s="2" t="s">
+      <c r="AB22" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AC32" s="2" t="s">
+      <c r="AC22" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AD32" s="2" t="s">
+      <c r="AD22" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AH32" s="2" t="s">
+      <c r="AH22" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AI32" s="2" t="s">
+      <c r="AI22" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AJ32" s="2" t="s">
+      <c r="AJ22" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AK32" s="2">
+      <c r="AK22" s="2">
         <v>-0.36499999999999999</v>
       </c>
-      <c r="AL32" s="2">
+      <c r="AL22" s="2">
         <v>-0.36499999999999999</v>
       </c>
-      <c r="AM32" s="2">
+      <c r="AM22" s="2">
         <v>-0.36499999999999999</v>
       </c>
-      <c r="AN32" s="2" t="s">
+      <c r="AN22" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AO32" s="2">
+      <c r="AO22" s="2">
         <f>('180 Lithium Ion Battery'!E25+'180 Lithium Ion Battery'!E27)/0.0000036</f>
         <v>41945.222222222219</v>
       </c>
-      <c r="AP32" s="2">
+      <c r="AP22" s="2">
         <f>('180 Lithium Ion Battery'!F25+'180 Lithium Ion Battery'!F27)/0.0000036</f>
         <v>27766.555555555551</v>
       </c>
-      <c r="AQ32" s="2">
+      <c r="AQ22" s="2">
         <f>('180 Lithium Ion Battery'!G25+'180 Lithium Ion Battery'!G27)/0.0000036</f>
         <v>22154.166666666664</v>
       </c>
-      <c r="AU32" s="2">
+      <c r="AU22" s="2">
         <f>'180 Lithium Ion Battery'!E29/(1000000*0.0000036)</f>
         <v>0.53169999999999995</v>
       </c>
-      <c r="AV32" s="2">
+      <c r="AV22" s="2">
         <f>'180 Lithium Ion Battery'!F29/(1000000*0.0000036)</f>
         <v>0.50216111111111106</v>
       </c>
-      <c r="AW32" s="2">
+      <c r="AW22" s="2">
         <f>'180 Lithium Ion Battery'!G29/(1000000*0.0000036)</f>
         <v>0.47262222222222222</v>
       </c>
-      <c r="AX32" s="2">
+      <c r="AX22" s="2">
         <v>0.2</v>
       </c>
-      <c r="AY32" s="2">
+      <c r="AY22" s="2">
         <v>0.2</v>
       </c>
-      <c r="AZ32" s="2">
+      <c r="AZ22" s="2">
         <v>0.2</v>
       </c>
-      <c r="BC32" s="2">
+      <c r="BC22" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
+    <row r="23" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="I23" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="K23" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="L33" s="2" t="s">
+      <c r="L23" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="M33" s="2" t="s">
+      <c r="M23" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="O33" s="2" t="s">
+      <c r="O23" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="P33" s="2">
+      <c r="P23" s="2">
         <v>31.536000000000001</v>
       </c>
-      <c r="Q33" s="2">
+      <c r="Q23" s="2">
         <v>2030</v>
       </c>
-      <c r="R33" s="2" t="s">
+      <c r="R23" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="S33" s="2" t="s">
+      <c r="S23" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="T33" s="2" t="s">
+      <c r="T23" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="U33" s="2">
+      <c r="U23" s="2">
         <v>20</v>
       </c>
-      <c r="V33" s="2">
+      <c r="V23" s="2">
         <v>25</v>
       </c>
-      <c r="W33" s="2">
+      <c r="W23" s="2">
         <v>30</v>
       </c>
-      <c r="X33" s="2" t="s">
+      <c r="X23" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="Y33" s="2" t="s">
+      <c r="Y23" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="Z33" s="2" t="s">
+      <c r="Z23" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AA33" s="2" t="s">
+      <c r="AA23" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AB33" s="2">
+      <c r="AB23" s="2">
         <v>0.97</v>
       </c>
-      <c r="AC33" s="2">
+      <c r="AC23" s="2">
         <v>0.97499999999999998</v>
       </c>
-      <c r="AD33" s="2">
+      <c r="AD23" s="2">
         <v>0.97499999999999998</v>
       </c>
-      <c r="AE33" s="2" t="s">
+      <c r="AE23" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AF33" s="2" t="s">
+      <c r="AF23" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AG33" s="2" t="s">
+      <c r="AG23" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AH33" s="2" t="s">
+      <c r="AH23" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AI33" s="2" t="s">
+      <c r="AI23" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AJ33" s="2" t="s">
+      <c r="AJ23" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AK33" s="2" t="s">
+      <c r="AK23" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AL33" s="2" t="s">
+      <c r="AL23" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AM33" s="2" t="s">
+      <c r="AM23" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AN33" s="2" t="s">
+      <c r="AN23" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AO33" s="2">
+      <c r="AO23" s="2">
         <f>'180 Lithium Ion Battery'!E26*1000</f>
         <v>170.14399999999998</v>
       </c>
-      <c r="AP33" s="2">
+      <c r="AP23" s="2">
         <f>'180 Lithium Ion Battery'!F26*1000</f>
         <v>106.33999999999999</v>
       </c>
-      <c r="AQ33" s="2">
+      <c r="AQ23" s="2">
         <f>'180 Lithium Ion Battery'!G26*1000</f>
         <v>63.803999999999988</v>
       </c>
-      <c r="AR33" s="17">
+      <c r="AR23" s="17">
         <f>'180 Lithium Ion Battery'!E28</f>
         <v>0.57423599999999997</v>
       </c>
-      <c r="AS33" s="17">
+      <c r="AS23" s="17">
         <f>'180 Lithium Ion Battery'!F28</f>
         <v>0.57423599999999997</v>
       </c>
-      <c r="AT33" s="17">
+      <c r="AT23" s="17">
         <f>'180 Lithium Ion Battery'!G28</f>
         <v>0.57423599999999997</v>
       </c>
-      <c r="AU33" s="2" t="s">
+      <c r="AU23" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AV33" s="2" t="s">
+      <c r="AV23" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AW33" s="2" t="s">
+      <c r="AW23" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BC33" s="2">
+      <c r="BC23" s="2">
         <v>1</v>
       </c>
-      <c r="BD33" s="2">
+      <c r="BD23" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="36" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N36" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="42" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N42" s="2" t="s">
         <v>94</v>
       </c>
@@ -17815,7 +17815,7 @@
       </c>
       <c r="N26" s="57"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A27" s="58"/>
       <c r="B27" s="59" t="s">
         <v>175</v>

--- a/SubRES_TMPL/SubRES_STO_Techs_noELC.xlsx
+++ b/SubRES_TMPL/SubRES_STO_Techs_noELC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F476BC23-6E7F-499C-819E-ED51314F8759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505D3982-918C-4854-8056-7786E3808958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -462,7 +462,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="454">
   <si>
     <t>TechName</t>
   </si>
@@ -14378,10 +14378,10 @@
   <sheetPr>
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A2:BE42"/>
+  <dimension ref="A2:BE43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -16418,443 +16418,438 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
+    <row r="36" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="N36" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G41" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I41" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="K41" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="L41" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="M41" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="O21" s="2" t="s">
+      <c r="O41" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="P21" s="2">
+      <c r="P41" s="2">
         <v>31.536000000000001</v>
       </c>
-      <c r="Q21" s="2">
+      <c r="Q41" s="2">
         <v>2030</v>
       </c>
-      <c r="R21" s="2" t="s">
+      <c r="R41" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="S21" s="2" t="s">
+      <c r="S41" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="T21" s="2" t="s">
+      <c r="T41" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="U21" s="2">
+      <c r="U41" s="2">
         <v>20</v>
       </c>
-      <c r="V21" s="2">
+      <c r="V41" s="2">
         <v>25</v>
       </c>
-      <c r="W21" s="2">
+      <c r="W41" s="2">
         <v>30</v>
       </c>
-      <c r="X21" s="2" t="s">
+      <c r="X41" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="Y21" s="2" t="s">
+      <c r="Y41" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="Z21" s="2" t="s">
+      <c r="Z41" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AA21" s="2" t="s">
+      <c r="AA41" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AB21" s="2">
+      <c r="AB41" s="2">
         <v>0.98</v>
       </c>
-      <c r="AC21" s="2">
+      <c r="AC41" s="2">
         <v>0.98499999999999999</v>
       </c>
-      <c r="AD21" s="2">
+      <c r="AD41" s="2">
         <v>0.98499999999999999</v>
       </c>
-      <c r="AE21" s="2" t="s">
+      <c r="AE41" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AF21" s="2" t="s">
+      <c r="AF41" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AG21" s="2" t="s">
+      <c r="AG41" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AH21" s="2" t="s">
+      <c r="AH41" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AI21" s="2" t="s">
+      <c r="AI41" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AJ21" s="2" t="s">
+      <c r="AJ41" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AK21" s="2" t="s">
+      <c r="AK41" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AL21" s="2" t="s">
+      <c r="AL41" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AM21" s="2" t="s">
+      <c r="AM41" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AN21" s="2" t="s">
+      <c r="AN41" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AO21" s="2">
+      <c r="AO41" s="2">
         <v>1E-4</v>
       </c>
-      <c r="AP21" s="2">
+      <c r="AP41" s="2">
         <v>1E-4</v>
       </c>
-      <c r="AQ21" s="2">
+      <c r="AQ41" s="2">
         <v>1E-4</v>
       </c>
-      <c r="AR21" s="2" t="s">
+      <c r="AR41" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AS21" s="2" t="s">
+      <c r="AS41" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AT21" s="2" t="s">
+      <c r="AT41" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AU21" s="2" t="s">
+      <c r="AU41" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AV21" s="2" t="s">
+      <c r="AV41" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AW21" s="2" t="s">
+      <c r="AW41" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BC21" s="2">
+      <c r="BC41" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
+    <row r="42" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G42" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I42" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="K42" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="L42" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="M42" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="N22" s="2" t="s">
+      <c r="N42" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="O22" s="2" t="s">
+      <c r="O42" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P22" s="2">
+      <c r="P42" s="2">
         <v>1</v>
       </c>
-      <c r="Q22" s="2">
+      <c r="Q42" s="2">
         <v>2030</v>
       </c>
-      <c r="R22" s="2" t="s">
+      <c r="R42" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="S22" s="2" t="s">
+      <c r="S42" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="T22" s="2" t="s">
+      <c r="T42" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="U22" s="2">
+      <c r="U42" s="2">
         <v>20</v>
       </c>
-      <c r="V22" s="2">
+      <c r="V42" s="2">
         <v>25</v>
       </c>
-      <c r="W22" s="2">
+      <c r="W42" s="2">
         <v>30</v>
       </c>
-      <c r="X22" s="2">
+      <c r="X42" s="2">
         <v>14000</v>
       </c>
-      <c r="Y22" s="2">
+      <c r="Y42" s="2">
         <v>30000</v>
       </c>
-      <c r="Z22" s="2">
+      <c r="Z42" s="2">
         <v>50000</v>
       </c>
-      <c r="AA22" s="2" t="s">
+      <c r="AA42" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AB22" s="2" t="s">
+      <c r="AB42" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AC22" s="2" t="s">
+      <c r="AC42" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AD22" s="2" t="s">
+      <c r="AD42" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AH22" s="2" t="s">
+      <c r="AH42" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AI22" s="2" t="s">
+      <c r="AI42" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AJ22" s="2" t="s">
+      <c r="AJ42" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AK22" s="2">
+      <c r="AK42" s="2">
         <v>-0.36499999999999999</v>
       </c>
-      <c r="AL22" s="2">
+      <c r="AL42" s="2">
         <v>-0.36499999999999999</v>
       </c>
-      <c r="AM22" s="2">
+      <c r="AM42" s="2">
         <v>-0.36499999999999999</v>
       </c>
-      <c r="AN22" s="2" t="s">
+      <c r="AN42" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AO22" s="2">
+      <c r="AO42" s="2">
         <f>('180 Lithium Ion Battery'!E25+'180 Lithium Ion Battery'!E27)/0.0000036</f>
         <v>41945.222222222219</v>
       </c>
-      <c r="AP22" s="2">
+      <c r="AP42" s="2">
         <f>('180 Lithium Ion Battery'!F25+'180 Lithium Ion Battery'!F27)/0.0000036</f>
         <v>27766.555555555551</v>
       </c>
-      <c r="AQ22" s="2">
+      <c r="AQ42" s="2">
         <f>('180 Lithium Ion Battery'!G25+'180 Lithium Ion Battery'!G27)/0.0000036</f>
         <v>22154.166666666664</v>
       </c>
-      <c r="AU22" s="2">
+      <c r="AU42" s="2">
         <f>'180 Lithium Ion Battery'!E29/(1000000*0.0000036)</f>
         <v>0.53169999999999995</v>
       </c>
-      <c r="AV22" s="2">
+      <c r="AV42" s="2">
         <f>'180 Lithium Ion Battery'!F29/(1000000*0.0000036)</f>
         <v>0.50216111111111106</v>
       </c>
-      <c r="AW22" s="2">
+      <c r="AW42" s="2">
         <f>'180 Lithium Ion Battery'!G29/(1000000*0.0000036)</f>
         <v>0.47262222222222222</v>
       </c>
-      <c r="AX22" s="2">
+      <c r="AX42" s="2">
         <v>0.2</v>
       </c>
-      <c r="AY22" s="2">
+      <c r="AY42" s="2">
         <v>0.2</v>
       </c>
-      <c r="AZ22" s="2">
+      <c r="AZ42" s="2">
         <v>0.2</v>
       </c>
-      <c r="BC22" s="2">
+      <c r="BC42" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
+    <row r="43" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F43" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G43" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I43" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="K43" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="L43" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="M23" s="2" t="s">
+      <c r="M43" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="O23" s="2" t="s">
+      <c r="O43" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="P23" s="2">
+      <c r="P43" s="2">
         <v>31.536000000000001</v>
       </c>
-      <c r="Q23" s="2">
+      <c r="Q43" s="2">
         <v>2030</v>
       </c>
-      <c r="R23" s="2" t="s">
+      <c r="R43" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="S23" s="2" t="s">
+      <c r="S43" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="T23" s="2" t="s">
+      <c r="T43" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="U23" s="2">
+      <c r="U43" s="2">
         <v>20</v>
       </c>
-      <c r="V23" s="2">
+      <c r="V43" s="2">
         <v>25</v>
       </c>
-      <c r="W23" s="2">
+      <c r="W43" s="2">
         <v>30</v>
       </c>
-      <c r="X23" s="2" t="s">
+      <c r="X43" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="Y23" s="2" t="s">
+      <c r="Y43" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="Z23" s="2" t="s">
+      <c r="Z43" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AA23" s="2" t="s">
+      <c r="AA43" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AB23" s="2">
+      <c r="AB43" s="2">
         <v>0.97</v>
       </c>
-      <c r="AC23" s="2">
+      <c r="AC43" s="2">
         <v>0.97499999999999998</v>
       </c>
-      <c r="AD23" s="2">
+      <c r="AD43" s="2">
         <v>0.97499999999999998</v>
       </c>
-      <c r="AE23" s="2" t="s">
+      <c r="AE43" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AF23" s="2" t="s">
+      <c r="AF43" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AG23" s="2" t="s">
+      <c r="AG43" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AH23" s="2" t="s">
+      <c r="AH43" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AI23" s="2" t="s">
+      <c r="AI43" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AJ23" s="2" t="s">
+      <c r="AJ43" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AK23" s="2" t="s">
+      <c r="AK43" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AL23" s="2" t="s">
+      <c r="AL43" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AM23" s="2" t="s">
+      <c r="AM43" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AN23" s="2" t="s">
+      <c r="AN43" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AO23" s="2">
+      <c r="AO43" s="2">
         <f>'180 Lithium Ion Battery'!E26*1000</f>
         <v>170.14399999999998</v>
       </c>
-      <c r="AP23" s="2">
+      <c r="AP43" s="2">
         <f>'180 Lithium Ion Battery'!F26*1000</f>
         <v>106.33999999999999</v>
       </c>
-      <c r="AQ23" s="2">
+      <c r="AQ43" s="2">
         <f>'180 Lithium Ion Battery'!G26*1000</f>
         <v>63.803999999999988</v>
       </c>
-      <c r="AR23" s="17">
+      <c r="AR43" s="17">
         <f>'180 Lithium Ion Battery'!E28</f>
         <v>0.57423599999999997</v>
       </c>
-      <c r="AS23" s="17">
+      <c r="AS43" s="17">
         <f>'180 Lithium Ion Battery'!F28</f>
         <v>0.57423599999999997</v>
       </c>
-      <c r="AT23" s="17">
+      <c r="AT43" s="17">
         <f>'180 Lithium Ion Battery'!G28</f>
         <v>0.57423599999999997</v>
       </c>
-      <c r="AU23" s="2" t="s">
+      <c r="AU43" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AV23" s="2" t="s">
+      <c r="AV43" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AW23" s="2" t="s">
+      <c r="AW43" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BC23" s="2">
+      <c r="BC43" s="2">
         <v>1</v>
       </c>
-      <c r="BD23" s="2">
+      <c r="BD43" s="2">
         <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N36" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="42" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N42" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -17815,7 +17810,7 @@
       </c>
       <c r="N26" s="57"/>
     </row>
-    <row r="27" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="58"/>
       <c r="B27" s="59" t="s">
         <v>175</v>
